--- a/config/class.xlsx
+++ b/config/class.xlsx
@@ -10678,8 +10678,8 @@
       <c r="F7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="2">
-        <v>0.0</v>
+      <c r="G7" s="20">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
@@ -10703,8 +10703,8 @@
       <c r="F8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="2">
-        <v>0.0</v>
+      <c r="G8" s="20">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
@@ -10728,8 +10728,8 @@
       <c r="F9" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="2">
-        <v>0.0</v>
+      <c r="G9" s="20">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
@@ -10753,8 +10753,8 @@
       <c r="F10" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="2">
-        <v>0.0</v>
+      <c r="G10" s="20">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
@@ -10778,8 +10778,8 @@
       <c r="F11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="2">
-        <v>0.0</v>
+      <c r="G11" s="20">
+        <v>1.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -10803,8 +10803,8 @@
       <c r="F12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="2">
-        <v>0.0</v>
+      <c r="G12" s="20">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
